--- a/BranjeLK/src/components/Zbirka_struktura.xlsx
+++ b/BranjeLK/src/components/Zbirka_struktura.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -430,14 +430,8 @@
       <c r="I1" t="str">
         <v>Vodja postopka</v>
       </c>
-      <c r="K1">
-        <v>0.8541666666666666</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="str">
         <v/>
       </c>
@@ -463,9 +457,673 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C3" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D3" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E3" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F3" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H3" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C4" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D4" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E4" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F4" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H4" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Novo mesto</v>
+      </c>
+      <c r="C5" t="str">
+        <v>35312-471/2025-2562-2</v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve">1320 DRNOVO  </v>
+      </c>
+      <c r="E5" t="str">
+        <v>100088931</v>
+      </c>
+      <c r="F5" t="str">
+        <v>101990903</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H5" t="str">
+        <v>06.02.2025</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Danila Urek</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C6" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E6" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F6" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H6" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C7" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D7" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E7" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F7" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H7" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Novo mesto</v>
+      </c>
+      <c r="C8" t="str">
+        <v>35312-471/2025-2562-2</v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve">1320 DRNOVO  </v>
+      </c>
+      <c r="E8" t="str">
+        <v>100088931</v>
+      </c>
+      <c r="F8" t="str">
+        <v>101990903</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H8" t="str">
+        <v>06.02.2025</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Danila Urek</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C9" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D9" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E9" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F9" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H9" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C10" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D10" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E10" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F10" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H10" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J10" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Novo mesto</v>
+      </c>
+      <c r="C11" t="str">
+        <v>35312-471/2025-2562-2</v>
+      </c>
+      <c r="D11" t="str">
+        <v xml:space="preserve">1320 DRNOVO  </v>
+      </c>
+      <c r="E11" t="str">
+        <v>100088931</v>
+      </c>
+      <c r="F11" t="str">
+        <v>101990903</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H11" t="str">
+        <v>06.02.2025</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Danila Urek</v>
+      </c>
+      <c r="J11" t="str">
+        <v>da se površina parcele 3726 ne ujema v pdf elaborata in xml podatkih. Potrebno jo je uskladiti.</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C12" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D12" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E12" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F12" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H12" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J12" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C13" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D13" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E13" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F13" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H13" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Novo mesto</v>
+      </c>
+      <c r="C14" t="str">
+        <v>35312-471/2025-2562-2</v>
+      </c>
+      <c r="D14" t="str">
+        <v xml:space="preserve">1320 DRNOVO  </v>
+      </c>
+      <c r="E14" t="str">
+        <v>100088931</v>
+      </c>
+      <c r="F14" t="str">
+        <v>101990903</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H14" t="str">
+        <v>06.02.2025</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Danila Urek</v>
+      </c>
+      <c r="J14" t="str">
+        <v>da se površina parcele 3726 ne ujema v pdf elaborata in xml podatkih. Potrebno jo je uskladiti.</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C15" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E15" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F15" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H15" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J15" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C16" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D16" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E16" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F16" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H16" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J16" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Novo mesto</v>
+      </c>
+      <c r="C17" t="str">
+        <v>35312-471/2025-2562-2</v>
+      </c>
+      <c r="D17" t="str">
+        <v xml:space="preserve">1320 DRNOVO  </v>
+      </c>
+      <c r="E17" t="str">
+        <v>100088931</v>
+      </c>
+      <c r="F17" t="str">
+        <v>101990903</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H17" t="str">
+        <v>06.02.2025</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Danila Urek</v>
+      </c>
+      <c r="J17" t="str">
+        <v>da se površina parcele 3726 ne ujema v pdf elaborata in xml podatkih. Potrebno jo je uskladiti.</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C18" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D18" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E18" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F18" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H18" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J18" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C19" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E19" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F19" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H19" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J19" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Novo mesto</v>
+      </c>
+      <c r="C20" t="str">
+        <v>35312-471/2025-2562-2</v>
+      </c>
+      <c r="D20" t="str">
+        <v xml:space="preserve">1320 DRNOVO  </v>
+      </c>
+      <c r="E20" t="str">
+        <v>100088931</v>
+      </c>
+      <c r="F20" t="str">
+        <v>101990903</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H20" t="str">
+        <v>06.02.2025</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Danila Urek</v>
+      </c>
+      <c r="J20" t="str">
+        <v>da se površina parcele 3726 ne ujema v pdf elaborata in xml podatkih. Potrebno jo je uskladiti.</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C21" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D21" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E21" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F21" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H21" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J21" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Idrija</v>
+      </c>
+      <c r="C22" t="str">
+        <v>35312-80247/2024-2562-2</v>
+      </c>
+      <c r="D22" t="str">
+        <v xml:space="preserve">1237 PILŠTANJ  </v>
+      </c>
+      <c r="E22" t="str">
+        <v>100111807</v>
+      </c>
+      <c r="F22" t="str">
+        <v>101973117</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H22" t="str">
+        <v>24.01.2025</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Andra Šulgaj</v>
+      </c>
+      <c r="J22" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.   Stavba 1237-493: potrebna uskladitev podatka o letnici obnove fasade v XML-ju in obrazcu S-9,
+2  2.   Stavba 1237-493: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,  3.   Stavba 1237-511: potrebna uskladitev podatka o materialu nosilne konstrukcije v XML-ju in obrazcu S-9,</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Novo mesto</v>
+      </c>
+      <c r="C23" t="str">
+        <v>35312-471/2025-2562-2</v>
+      </c>
+      <c r="D23" t="str">
+        <v xml:space="preserve">1320 DRNOVO  </v>
+      </c>
+      <c r="E23" t="str">
+        <v>100088931</v>
+      </c>
+      <c r="F23" t="str">
+        <v>101990903</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Matej   Kovačič,   univ.dipl.inž.geod. (Geo0186)</v>
+      </c>
+      <c r="H23" t="str">
+        <v>06.02.2025</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Danila Urek</v>
+      </c>
+      <c r="J23" t="str">
+        <v>da se površina parcele 3726 ne ujema v pdf elaborata in xml podatkih. Potrebno jo je uskladiti.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J23"/>
   </ignoredErrors>
 </worksheet>
 </file>